--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adm-Ramp3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adm-Ramp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Ramp3</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +534,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3539136064221</v>
+        <v>12.455024</v>
       </c>
       <c r="H2">
-        <v>12.3539136064221</v>
+        <v>24.910048</v>
       </c>
       <c r="I2">
-        <v>0.2308260573234354</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J2">
-        <v>0.2308260573234354</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.743556444635997</v>
+        <v>0.1243935</v>
       </c>
       <c r="N2">
-        <v>0.743556444635997</v>
+        <v>0.248787</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1037355505881087</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.07299439046352393</v>
       </c>
       <c r="Q2">
-        <v>9.185832078531485</v>
+        <v>1.549324027944</v>
       </c>
       <c r="R2">
-        <v>9.185832078531485</v>
+        <v>6.197296111776001</v>
       </c>
       <c r="S2">
-        <v>0.2308260573234354</v>
+        <v>0.02217645087284075</v>
       </c>
       <c r="T2">
-        <v>0.2308260573234354</v>
+        <v>0.01129562863747759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +596,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.7939710241268</v>
+        <v>12.455024</v>
       </c>
       <c r="H3">
-        <v>28.7939710241268</v>
+        <v>24.910048</v>
       </c>
       <c r="I3">
-        <v>0.537999456522777</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J3">
-        <v>0.537999456522777</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.743556444635997</v>
+        <v>0.08989466666666666</v>
       </c>
       <c r="N3">
-        <v>0.743556444635997</v>
+        <v>0.269684</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.0749659165599583</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.07912559417399216</v>
       </c>
       <c r="Q3">
-        <v>21.40994272165164</v>
+        <v>1.119640230805333</v>
       </c>
       <c r="R3">
-        <v>21.40994272165164</v>
+        <v>6.717841384832</v>
       </c>
       <c r="S3">
-        <v>0.537999456522777</v>
+        <v>0.01602611598728011</v>
       </c>
       <c r="T3">
-        <v>0.537999456522777</v>
+        <v>0.01224441113671336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +658,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.049762642593</v>
+        <v>12.455024</v>
       </c>
       <c r="H4">
-        <v>11.049762642593</v>
+        <v>24.910048</v>
       </c>
       <c r="I4">
-        <v>0.2064587163555708</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J4">
-        <v>0.2064587163555708</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.743556444635997</v>
+        <v>0.164724</v>
       </c>
       <c r="N4">
-        <v>0.743556444635997</v>
+        <v>0.494172</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1373683901094159</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1449906302344598</v>
       </c>
       <c r="Q4">
-        <v>8.216122224598111</v>
+        <v>2.051641373376</v>
       </c>
       <c r="R4">
-        <v>8.216122224598111</v>
+        <v>12.309848240256</v>
       </c>
       <c r="S4">
-        <v>0.2064587163555708</v>
+        <v>0.02936643549363769</v>
       </c>
       <c r="T4">
-        <v>0.2064587163555708</v>
+        <v>0.02243679691880836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +723,1044 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.32279903033454</v>
+        <v>12.455024</v>
       </c>
       <c r="H5">
-        <v>1.32279903033454</v>
+        <v>24.910048</v>
       </c>
       <c r="I5">
-        <v>0.02471576979821667</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J5">
-        <v>0.02471576979821667</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.743556444635997</v>
+        <v>0.7554033333333333</v>
       </c>
       <c r="N5">
-        <v>0.743556444635997</v>
+        <v>2.26621</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.6299539823176128</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.6649086070105857</v>
       </c>
       <c r="Q5">
-        <v>0.983575743963495</v>
+        <v>9.408566646346667</v>
       </c>
       <c r="R5">
-        <v>0.983575743963495</v>
+        <v>56.45139987808001</v>
       </c>
       <c r="S5">
-        <v>0.02471576979821667</v>
+        <v>0.1346707417256273</v>
       </c>
       <c r="T5">
-        <v>0.02471576979821667</v>
+        <v>0.1028922997364737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>12.455024</v>
+      </c>
+      <c r="H6">
+        <v>24.910048</v>
+      </c>
+      <c r="I6">
+        <v>0.2137786973425757</v>
+      </c>
+      <c r="J6">
+        <v>0.1547465300518145</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.064725</v>
+      </c>
+      <c r="N6">
+        <v>0.12945</v>
+      </c>
+      <c r="O6">
+        <v>0.05397616042490434</v>
+      </c>
+      <c r="P6">
+        <v>0.03798077811743851</v>
+      </c>
+      <c r="Q6">
+        <v>0.8061514284000002</v>
+      </c>
+      <c r="R6">
+        <v>3.224605713600001</v>
+      </c>
+      <c r="S6">
+        <v>0.01153895326318994</v>
+      </c>
+      <c r="T6">
+        <v>0.005877393622341499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>32.753573</v>
+      </c>
+      <c r="H7">
+        <v>98.26071899999999</v>
+      </c>
+      <c r="I7">
+        <v>0.5621840768235339</v>
+      </c>
+      <c r="J7">
+        <v>0.6104165397692691</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.1243935</v>
+      </c>
+      <c r="N7">
+        <v>0.248787</v>
+      </c>
+      <c r="O7">
+        <v>0.1037355505881087</v>
+      </c>
+      <c r="P7">
+        <v>0.07299439046352393</v>
+      </c>
+      <c r="Q7">
+        <v>4.0743315829755</v>
+      </c>
+      <c r="R7">
+        <v>24.445989497853</v>
+      </c>
+      <c r="S7">
+        <v>0.05831847474115691</v>
+      </c>
+      <c r="T7">
+        <v>0.04455698324931122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>32.753573</v>
+      </c>
+      <c r="H8">
+        <v>98.26071899999999</v>
+      </c>
+      <c r="I8">
+        <v>0.5621840768235339</v>
+      </c>
+      <c r="J8">
+        <v>0.6104165397692691</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.08989466666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.269684</v>
+      </c>
+      <c r="O8">
+        <v>0.0749659165599583</v>
+      </c>
+      <c r="P8">
+        <v>0.07912559417399216</v>
+      </c>
+      <c r="Q8">
+        <v>2.944371526977333</v>
+      </c>
+      <c r="R8">
+        <v>26.499343742796</v>
+      </c>
+      <c r="S8">
+        <v>0.04214464459449022</v>
+      </c>
+      <c r="T8">
+        <v>0.04829957140287574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>32.753573</v>
+      </c>
+      <c r="H9">
+        <v>98.26071899999999</v>
+      </c>
+      <c r="I9">
+        <v>0.5621840768235339</v>
+      </c>
+      <c r="J9">
+        <v>0.6104165397692691</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.164724</v>
+      </c>
+      <c r="N9">
+        <v>0.494172</v>
+      </c>
+      <c r="O9">
+        <v>0.1373683901094159</v>
+      </c>
+      <c r="P9">
+        <v>0.1449906302344598</v>
+      </c>
+      <c r="Q9">
+        <v>5.395299558852</v>
+      </c>
+      <c r="R9">
+        <v>48.55769602966799</v>
+      </c>
+      <c r="S9">
+        <v>0.07722632157839703</v>
+      </c>
+      <c r="T9">
+        <v>0.08850467880668453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>32.753573</v>
+      </c>
+      <c r="H10">
+        <v>98.26071899999999</v>
+      </c>
+      <c r="I10">
+        <v>0.5621840768235339</v>
+      </c>
+      <c r="J10">
+        <v>0.6104165397692691</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7554033333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.26621</v>
+      </c>
+      <c r="O10">
+        <v>0.6299539823176128</v>
+      </c>
+      <c r="P10">
+        <v>0.6649086070105857</v>
+      </c>
+      <c r="Q10">
+        <v>24.74215822277666</v>
+      </c>
+      <c r="R10">
+        <v>222.67942400499</v>
+      </c>
+      <c r="S10">
+        <v>0.3541500979905359</v>
+      </c>
+      <c r="T10">
+        <v>0.4058712111542065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>32.753573</v>
+      </c>
+      <c r="H11">
+        <v>98.26071899999999</v>
+      </c>
+      <c r="I11">
+        <v>0.5621840768235339</v>
+      </c>
+      <c r="J11">
+        <v>0.6104165397692691</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.064725</v>
+      </c>
+      <c r="N11">
+        <v>0.12945</v>
+      </c>
+      <c r="O11">
+        <v>0.05397616042490434</v>
+      </c>
+      <c r="P11">
+        <v>0.03798077811743851</v>
+      </c>
+      <c r="Q11">
+        <v>2.119975012425</v>
+      </c>
+      <c r="R11">
+        <v>12.71985007455</v>
+      </c>
+      <c r="S11">
+        <v>0.03034453791895381</v>
+      </c>
+      <c r="T11">
+        <v>0.02318409515619119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>11.69705966666667</v>
+      </c>
+      <c r="H12">
+        <v>35.091179</v>
+      </c>
+      <c r="I12">
+        <v>0.2007689570311854</v>
+      </c>
+      <c r="J12">
+        <v>0.2179938868715589</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.1243935</v>
+      </c>
+      <c r="N12">
+        <v>0.248787</v>
+      </c>
+      <c r="O12">
+        <v>0.1037355505881087</v>
+      </c>
+      <c r="P12">
+        <v>0.07299439046352393</v>
+      </c>
+      <c r="Q12">
+        <v>1.4550381916455</v>
+      </c>
+      <c r="R12">
+        <v>8.730229149872999</v>
+      </c>
+      <c r="S12">
+        <v>0.02082687829863036</v>
+      </c>
+      <c r="T12">
+        <v>0.01591233089696384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>11.69705966666667</v>
+      </c>
+      <c r="H13">
+        <v>35.091179</v>
+      </c>
+      <c r="I13">
+        <v>0.2007689570311854</v>
+      </c>
+      <c r="J13">
+        <v>0.2179938868715589</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.08989466666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.269684</v>
+      </c>
+      <c r="O13">
+        <v>0.0749659165599583</v>
+      </c>
+      <c r="P13">
+        <v>0.07912559417399216</v>
+      </c>
+      <c r="Q13">
+        <v>1.051503279715111</v>
+      </c>
+      <c r="R13">
+        <v>9.463529517435999</v>
+      </c>
+      <c r="S13">
+        <v>0.0150508288806297</v>
+      </c>
+      <c r="T13">
+        <v>0.01724889582501013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11.69705966666667</v>
+      </c>
+      <c r="H14">
+        <v>35.091179</v>
+      </c>
+      <c r="I14">
+        <v>0.2007689570311854</v>
+      </c>
+      <c r="J14">
+        <v>0.2179938868715589</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.164724</v>
+      </c>
+      <c r="N14">
+        <v>0.494172</v>
+      </c>
+      <c r="O14">
+        <v>0.1373683901094159</v>
+      </c>
+      <c r="P14">
+        <v>0.1449906302344598</v>
+      </c>
+      <c r="Q14">
+        <v>1.926786456532</v>
+      </c>
+      <c r="R14">
+        <v>17.341078108788</v>
+      </c>
+      <c r="S14">
+        <v>0.02757930841132043</v>
+      </c>
+      <c r="T14">
+        <v>0.03160707104476686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11.69705966666667</v>
+      </c>
+      <c r="H15">
+        <v>35.091179</v>
+      </c>
+      <c r="I15">
+        <v>0.2007689570311854</v>
+      </c>
+      <c r="J15">
+        <v>0.2179938868715589</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7554033333333333</v>
+      </c>
+      <c r="N15">
+        <v>2.26621</v>
+      </c>
+      <c r="O15">
+        <v>0.6299539823176128</v>
+      </c>
+      <c r="P15">
+        <v>0.6649086070105857</v>
+      </c>
+      <c r="Q15">
+        <v>8.835997862398889</v>
+      </c>
+      <c r="R15">
+        <v>79.52398076159</v>
+      </c>
+      <c r="S15">
+        <v>0.1264752040075489</v>
+      </c>
+      <c r="T15">
+        <v>0.1449460116565914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11.69705966666667</v>
+      </c>
+      <c r="H16">
+        <v>35.091179</v>
+      </c>
+      <c r="I16">
+        <v>0.2007689570311854</v>
+      </c>
+      <c r="J16">
+        <v>0.2179938868715589</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.064725</v>
+      </c>
+      <c r="N16">
+        <v>0.12945</v>
+      </c>
+      <c r="O16">
+        <v>0.05397616042490434</v>
+      </c>
+      <c r="P16">
+        <v>0.03798077811743851</v>
+      </c>
+      <c r="Q16">
+        <v>0.757092186925</v>
+      </c>
+      <c r="R16">
+        <v>4.54255312155</v>
+      </c>
+      <c r="S16">
+        <v>0.01083673743305599</v>
+      </c>
+      <c r="T16">
+        <v>0.008279577448226671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.3556395</v>
+      </c>
+      <c r="H17">
+        <v>2.711279</v>
+      </c>
+      <c r="I17">
+        <v>0.02326826880270489</v>
+      </c>
+      <c r="J17">
+        <v>0.01684304330735749</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.1243935</v>
+      </c>
+      <c r="N17">
+        <v>0.248787</v>
+      </c>
+      <c r="O17">
+        <v>0.1037355505881087</v>
+      </c>
+      <c r="P17">
+        <v>0.07299439046352393</v>
+      </c>
+      <c r="Q17">
+        <v>0.16863274214325</v>
+      </c>
+      <c r="R17">
+        <v>0.6745309685730001</v>
+      </c>
+      <c r="S17">
+        <v>0.002413746675480706</v>
+      </c>
+      <c r="T17">
+        <v>0.001229447679771296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.3556395</v>
+      </c>
+      <c r="H18">
+        <v>2.711279</v>
+      </c>
+      <c r="I18">
+        <v>0.02326826880270489</v>
+      </c>
+      <c r="J18">
+        <v>0.01684304330735749</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.08989466666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.269684</v>
+      </c>
+      <c r="O18">
+        <v>0.0749659165599583</v>
+      </c>
+      <c r="P18">
+        <v>0.07912559417399216</v>
+      </c>
+      <c r="Q18">
+        <v>0.1218647609726667</v>
+      </c>
+      <c r="R18">
+        <v>0.731188565836</v>
+      </c>
+      <c r="S18">
+        <v>0.001744327097558255</v>
+      </c>
+      <c r="T18">
+        <v>0.001332715809392943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.3556395</v>
+      </c>
+      <c r="H19">
+        <v>2.711279</v>
+      </c>
+      <c r="I19">
+        <v>0.02326826880270489</v>
+      </c>
+      <c r="J19">
+        <v>0.01684304330735749</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.164724</v>
+      </c>
+      <c r="N19">
+        <v>0.494172</v>
+      </c>
+      <c r="O19">
+        <v>0.1373683901094159</v>
+      </c>
+      <c r="P19">
+        <v>0.1449906302344598</v>
+      </c>
+      <c r="Q19">
+        <v>0.223306360998</v>
+      </c>
+      <c r="R19">
+        <v>1.339838165988</v>
+      </c>
+      <c r="S19">
+        <v>0.003196324626060716</v>
+      </c>
+      <c r="T19">
+        <v>0.002442083464200062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.3556395</v>
+      </c>
+      <c r="H20">
+        <v>2.711279</v>
+      </c>
+      <c r="I20">
+        <v>0.02326826880270489</v>
+      </c>
+      <c r="J20">
+        <v>0.01684304330735749</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.7554033333333333</v>
+      </c>
+      <c r="N20">
+        <v>2.26621</v>
+      </c>
+      <c r="O20">
+        <v>0.6299539823176128</v>
+      </c>
+      <c r="P20">
+        <v>0.6649086070105857</v>
+      </c>
+      <c r="Q20">
+        <v>1.024054597098333</v>
+      </c>
+      <c r="R20">
+        <v>6.144327582590001</v>
+      </c>
+      <c r="S20">
+        <v>0.01465793859390062</v>
+      </c>
+      <c r="T20">
+        <v>0.01119908446331403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.3556395</v>
+      </c>
+      <c r="H21">
+        <v>2.711279</v>
+      </c>
+      <c r="I21">
+        <v>0.02326826880270489</v>
+      </c>
+      <c r="J21">
+        <v>0.01684304330735749</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.064725</v>
+      </c>
+      <c r="N21">
+        <v>0.12945</v>
+      </c>
+      <c r="O21">
+        <v>0.05397616042490434</v>
+      </c>
+      <c r="P21">
+        <v>0.03798077811743851</v>
+      </c>
+      <c r="Q21">
+        <v>0.08774376663750001</v>
+      </c>
+      <c r="R21">
+        <v>0.35097506655</v>
+      </c>
+      <c r="S21">
+        <v>0.001255931809704596</v>
+      </c>
+      <c r="T21">
+        <v>0.0006397118906791523</v>
       </c>
     </row>
   </sheetData>
